--- a/doc/2017-time-line/第一周.xlsx
+++ b/doc/2017-time-line/第一周.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="第一周" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <r>
       <rPr>
@@ -29,6 +29,7 @@
         <color rgb="FF000000"/>
         <rFont val="AR PL UKai CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">第一周</t>
     </r>
@@ -50,6 +51,7 @@
         <color rgb="FF000000"/>
         <rFont val="AR PL UKai CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">周</t>
     </r>
@@ -93,13 +95,25 @@
     <t xml:space="preserve">周总结</t>
   </si>
   <si>
+    <t xml:space="preserve">周目标</t>
+  </si>
+  <si>
     <t xml:space="preserve">8:00.am</t>
   </si>
   <si>
     <t xml:space="preserve">外出游玩：湿地公园</t>
   </si>
   <si>
+    <t xml:space="preserve">工作</t>
+  </si>
+  <si>
+    <t xml:space="preserve">熟记 Angularjs1.x</t>
+  </si>
+  <si>
     <t xml:space="preserve">9:00.am</t>
+  </si>
+  <si>
+    <t xml:space="preserve">开发 Node.js插件</t>
   </si>
   <si>
     <t xml:space="preserve">10:00.am</t>
@@ -144,6 +158,7 @@
         <color rgb="FF000000"/>
         <rFont val="AR PL UKai CN"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">学习</t>
     </r>
@@ -159,10 +174,16 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">学习安装ShadowSocket</t>
+  </si>
+  <si>
     <t xml:space="preserve">21:00pm</t>
   </si>
   <si>
     <t xml:space="preserve">22:00pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redis应用</t>
   </si>
   <si>
     <t xml:space="preserve">计划完成情况</t>
@@ -208,6 +229,7 @@
       <color rgb="FF000000"/>
       <name val="AR PL UKai CN"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -230,6 +252,7 @@
       <color rgb="FF000000"/>
       <name val="AR PL UKai CN"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -245,6 +268,7 @@
       <color rgb="FF000000"/>
       <name val="AR PL UKai CN"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -296,7 +320,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -313,12 +337,20 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -338,23 +370,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R4" activeCellId="0" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.6855670103093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8659793814433"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6855670103093"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.2319587628866"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.7731958762887"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.639175257732"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.9587628865979"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.5463917525773"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.4123711340206"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.4587628865979"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.319587628866"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -369,7 +401,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
@@ -400,167 +432,266 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B16" s="4"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B17" s="4"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="0" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="13">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I2:L2"/>
+    <mergeCell ref="N2:Q2"/>
     <mergeCell ref="B3:B12"/>
+    <mergeCell ref="C3:C14"/>
+    <mergeCell ref="D3:D14"/>
     <mergeCell ref="I3:L6"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="N4:P4"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D16"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/doc/2017-time-line/第一周.xlsx
+++ b/doc/2017-time-line/第一周.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="第一周" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
   <si>
     <r>
       <rPr>
@@ -107,6 +107,12 @@
     <t xml:space="preserve">工作</t>
   </si>
   <si>
+    <t xml:space="preserve">工作 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">开服务器，穿”Qiang”,手机能用。但是，不行，有点烦躁</t>
+  </si>
+  <si>
     <t xml:space="preserve">熟记 Angularjs1.x</t>
   </si>
   <si>
@@ -122,15 +128,27 @@
     <t xml:space="preserve">11:00.am</t>
   </si>
   <si>
+    <t xml:space="preserve">看海贼</t>
+  </si>
+  <si>
     <t xml:space="preserve">12:00.am</t>
   </si>
   <si>
+    <t xml:space="preserve">技术小结：+</t>
+  </si>
+  <si>
     <t xml:space="preserve">13:00pm</t>
   </si>
   <si>
+    <t xml:space="preserve">技术原理分析：+</t>
+  </si>
+  <si>
     <t xml:space="preserve">14:00pm</t>
   </si>
   <si>
+    <t xml:space="preserve">休息</t>
+  </si>
+  <si>
     <t xml:space="preserve">15:00pm</t>
   </si>
   <si>
@@ -140,10 +158,13 @@
     <t xml:space="preserve">17:00pm</t>
   </si>
   <si>
+    <t xml:space="preserve">休息，看海贼</t>
+  </si>
+  <si>
     <t xml:space="preserve">18:00pm</t>
   </si>
   <si>
-    <t xml:space="preserve">休息</t>
+    <t xml:space="preserve">慢跑，休息，看海贼</t>
   </si>
   <si>
     <t xml:space="preserve">19:00pm</t>
@@ -177,9 +198,15 @@
     <t xml:space="preserve">学习安装ShadowSocket</t>
   </si>
   <si>
+    <t xml:space="preserve">第二遍阅读Redis第6章，关于消息推送技术</t>
+  </si>
+  <si>
     <t xml:space="preserve">21:00pm</t>
   </si>
   <si>
+    <t xml:space="preserve">学习Redis第8章，关于IM消息流;消息过滤;消息补偿</t>
+  </si>
+  <si>
     <t xml:space="preserve">22:00pm</t>
   </si>
   <si>
@@ -192,10 +219,19 @@
     <t xml:space="preserve">完成</t>
   </si>
   <si>
+    <t xml:space="preserve">一般</t>
+  </si>
+  <si>
     <t xml:space="preserve">学习情况</t>
   </si>
   <si>
-    <t xml:space="preserve">一般</t>
+    <t xml:space="preserve">差（半懂，第一次看到这个资料，待实验）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">差（玩了会游戏，有点累）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一般（基本明白是怎么回事了，等待实验）</t>
   </si>
   <si>
     <t xml:space="preserve">生活状态</t>
@@ -204,16 +240,31 @@
     <t xml:space="preserve">差（生病了）</t>
   </si>
   <si>
+    <t xml:space="preserve">差</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一般（药都吃了，好一点了）</t>
+  </si>
+  <si>
     <t xml:space="preserve">体育锻炼</t>
   </si>
   <si>
     <t xml:space="preserve">良好 </t>
   </si>
   <si>
+    <t xml:space="preserve">一般（未练习）</t>
+  </si>
+  <si>
     <t xml:space="preserve">一天总结</t>
   </si>
   <si>
     <t xml:space="preserve">加油</t>
+  </si>
+  <si>
+    <t xml:space="preserve">感觉这样的生活不太好，需要加油哈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">还是规律的生活好，要控制一下玩的时间了</t>
   </si>
 </sst>
 </file>
@@ -223,7 +274,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -263,12 +314,26 @@
       <charset val="134"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF666666"/>
       <name val="AR PL UKai CN"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="AR PL UKai CN"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="宋体"/>
+      <family val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -320,7 +385,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -329,28 +394,36 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -362,6 +435,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666666"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -373,20 +506,20 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R4" activeCellId="0" sqref="R4"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.6855670103093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8659793814433"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5927835051546"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6855670103093"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.2319587628866"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.639175257732"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3659793814433"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.9587628865979"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.5463917525773"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.4123711340206"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.319587628866"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.0463917525773"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -400,298 +533,615 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="N2" s="2" t="s">
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="0" t="n">
+      <c r="E3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
+      <c r="N3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="4"/>
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="0" t="n">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="N4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
+      <c r="N4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="4"/>
+      <c r="A8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="4"/>
+      <c r="A9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="4"/>
+      <c r="A10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="4"/>
+      <c r="A11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="4"/>
+      <c r="A12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="A13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="A16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="0" t="s">
-        <v>33</v>
-      </c>
+      <c r="A17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>35</v>
-      </c>
+      <c r="A18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>37</v>
-      </c>
+      <c r="A19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>39</v>
-      </c>
+      <c r="A20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>41</v>
-      </c>
+      <c r="A21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>43</v>
-      </c>
+      <c r="A22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="26">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="B3:B12"/>
     <mergeCell ref="C3:C14"/>
     <mergeCell ref="D3:D14"/>
+    <mergeCell ref="E3:E12"/>
+    <mergeCell ref="F3:F12"/>
+    <mergeCell ref="G3:G5"/>
     <mergeCell ref="I3:L6"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="N4:P4"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
     <mergeCell ref="B13:B14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="D15:D16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="E16:E17"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
